--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A5CBF-B021-234B-8E0F-BA21FD4E905F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF033E49-E58C-E84F-A567-7FE692646822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{AB71648B-DFF6-6143-B06E-214A36FEE36B}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -482,6 +482,9 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -490,6 +493,9 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -498,6 +504,9 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -506,6 +515,9 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -514,6 +526,9 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -522,6 +537,9 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -530,6 +548,9 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
+      <c r="C8">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -538,6 +559,9 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
@@ -546,6 +570,9 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="C10">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -554,6 +581,9 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
+      <c r="C11">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
@@ -561,6 +591,9 @@
       </c>
       <c r="B12" t="s">
         <v>13</v>
+      </c>
+      <c r="C12">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
